--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H2">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I2">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J2">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.1490928851155</v>
+        <v>29.57110033333333</v>
       </c>
       <c r="N2">
-        <v>26.1490928851155</v>
+        <v>88.713301</v>
       </c>
       <c r="O2">
-        <v>0.5161752668380152</v>
+        <v>0.5311523066901919</v>
       </c>
       <c r="P2">
-        <v>0.5161752668380152</v>
+        <v>0.5311523066901919</v>
       </c>
       <c r="Q2">
-        <v>4542.500562341757</v>
+        <v>5442.936293327297</v>
       </c>
       <c r="R2">
-        <v>4542.500562341757</v>
+        <v>48986.42663994568</v>
       </c>
       <c r="S2">
-        <v>0.3310412686082026</v>
+        <v>0.3458070147630837</v>
       </c>
       <c r="T2">
-        <v>0.3310412686082026</v>
+        <v>0.3458070147630838</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H3">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I3">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J3">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.0935976295608</v>
+        <v>12.180337</v>
       </c>
       <c r="N3">
-        <v>12.0935976295608</v>
+        <v>36.541011</v>
       </c>
       <c r="O3">
-        <v>0.2387239974593314</v>
+        <v>0.2187816490048282</v>
       </c>
       <c r="P3">
-        <v>0.2387239974593314</v>
+        <v>0.2187816490048282</v>
       </c>
       <c r="Q3">
-        <v>2100.844349529421</v>
+        <v>2241.945601446755</v>
       </c>
       <c r="R3">
-        <v>2100.844349529421</v>
+        <v>20177.51041302079</v>
       </c>
       <c r="S3">
-        <v>0.1531020566914505</v>
+        <v>0.1424379184169351</v>
       </c>
       <c r="T3">
-        <v>0.1531020566914505</v>
+        <v>0.1424379184169351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H4">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I4">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J4">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.4166389129027</v>
+        <v>13.92204833333333</v>
       </c>
       <c r="N4">
-        <v>12.4166389129027</v>
+        <v>41.76614499999999</v>
       </c>
       <c r="O4">
-        <v>0.2451007357026536</v>
+        <v>0.2500660443049799</v>
       </c>
       <c r="P4">
-        <v>0.2451007357026536</v>
+        <v>0.2500660443049799</v>
       </c>
       <c r="Q4">
-        <v>2156.961600620584</v>
+        <v>2562.529675824715</v>
       </c>
       <c r="R4">
-        <v>2156.961600620584</v>
+        <v>23062.76708242244</v>
       </c>
       <c r="S4">
-        <v>0.1571916821603017</v>
+        <v>0.1628056419703297</v>
       </c>
       <c r="T4">
-        <v>0.1571916821603017</v>
+        <v>0.1628056419703297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H5">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J5">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.1490928851155</v>
+        <v>29.57110033333333</v>
       </c>
       <c r="N5">
-        <v>26.1490928851155</v>
+        <v>88.713301</v>
       </c>
       <c r="O5">
-        <v>0.5161752668380152</v>
+        <v>0.5311523066901919</v>
       </c>
       <c r="P5">
-        <v>0.5161752668380152</v>
+        <v>0.5311523066901919</v>
       </c>
       <c r="Q5">
-        <v>1489.050225832498</v>
+        <v>1698.6645448878</v>
       </c>
       <c r="R5">
-        <v>1489.050225832498</v>
+        <v>15287.9809039902</v>
       </c>
       <c r="S5">
-        <v>0.1085166790880486</v>
+        <v>0.1079215489021378</v>
       </c>
       <c r="T5">
-        <v>0.1085166790880486</v>
+        <v>0.1079215489021378</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H6">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I6">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J6">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.0935976295608</v>
+        <v>12.180337</v>
       </c>
       <c r="N6">
-        <v>12.0935976295608</v>
+        <v>36.541011</v>
       </c>
       <c r="O6">
-        <v>0.2387239974593314</v>
+        <v>0.2187816490048282</v>
       </c>
       <c r="P6">
-        <v>0.2387239974593314</v>
+        <v>0.2187816490048282</v>
       </c>
       <c r="Q6">
-        <v>688.6653529643205</v>
+        <v>699.6799704258001</v>
       </c>
       <c r="R6">
-        <v>688.6653529643205</v>
+        <v>6297.119733832201</v>
       </c>
       <c r="S6">
-        <v>0.05018747911267123</v>
+        <v>0.04445288881280671</v>
       </c>
       <c r="T6">
-        <v>0.05018747911267123</v>
+        <v>0.04445288881280671</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H7">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I7">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J7">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.4166389129027</v>
+        <v>13.92204833333333</v>
       </c>
       <c r="N7">
-        <v>12.4166389129027</v>
+        <v>41.76614499999999</v>
       </c>
       <c r="O7">
-        <v>0.2451007357026536</v>
+        <v>0.2500660443049799</v>
       </c>
       <c r="P7">
-        <v>0.2451007357026536</v>
+        <v>0.2500660443049799</v>
       </c>
       <c r="Q7">
-        <v>707.0608169303872</v>
+        <v>799.7297912309998</v>
       </c>
       <c r="R7">
-        <v>707.0608169303872</v>
+        <v>7197.568121078999</v>
       </c>
       <c r="S7">
-        <v>0.05152807503432014</v>
+        <v>0.05080937141625782</v>
       </c>
       <c r="T7">
-        <v>0.05152807503432014</v>
+        <v>0.05080937141625782</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.2052878900969</v>
+        <v>41.21033366666666</v>
       </c>
       <c r="H8">
-        <v>40.2052878900969</v>
+        <v>123.631001</v>
       </c>
       <c r="I8">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="J8">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.1490928851155</v>
+        <v>29.57110033333333</v>
       </c>
       <c r="N8">
-        <v>26.1490928851155</v>
+        <v>88.713301</v>
       </c>
       <c r="O8">
-        <v>0.5161752668380152</v>
+        <v>0.5311523066901919</v>
       </c>
       <c r="P8">
-        <v>0.5161752668380152</v>
+        <v>0.5311523066901919</v>
       </c>
       <c r="Q8">
-        <v>1051.331807510953</v>
+        <v>1218.634911627144</v>
       </c>
       <c r="R8">
-        <v>1051.331807510953</v>
+        <v>10967.7142046443</v>
       </c>
       <c r="S8">
-        <v>0.07661731914176395</v>
+        <v>0.07742374302497033</v>
       </c>
       <c r="T8">
-        <v>0.07661731914176395</v>
+        <v>0.07742374302497033</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.2052878900969</v>
+        <v>41.21033366666666</v>
       </c>
       <c r="H9">
-        <v>40.2052878900969</v>
+        <v>123.631001</v>
       </c>
       <c r="I9">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="J9">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.0935976295608</v>
+        <v>12.180337</v>
       </c>
       <c r="N9">
-        <v>12.0935976295608</v>
+        <v>36.541011</v>
       </c>
       <c r="O9">
-        <v>0.2387239974593314</v>
+        <v>0.2187816490048282</v>
       </c>
       <c r="P9">
-        <v>0.2387239974593314</v>
+        <v>0.2187816490048282</v>
       </c>
       <c r="Q9">
-        <v>486.2265743234854</v>
+        <v>501.9557519424457</v>
       </c>
       <c r="R9">
-        <v>486.2265743234854</v>
+        <v>4517.601767482011</v>
       </c>
       <c r="S9">
-        <v>0.03543446165520962</v>
+        <v>0.03189084177508641</v>
       </c>
       <c r="T9">
-        <v>0.03543446165520962</v>
+        <v>0.03189084177508641</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.2052878900969</v>
+        <v>41.21033366666666</v>
       </c>
       <c r="H10">
-        <v>40.2052878900969</v>
+        <v>123.631001</v>
       </c>
       <c r="I10">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="J10">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.4166389129027</v>
+        <v>13.92204833333333</v>
       </c>
       <c r="N10">
-        <v>12.4166389129027</v>
+        <v>41.76614499999999</v>
       </c>
       <c r="O10">
-        <v>0.2451007357026536</v>
+        <v>0.2500660443049799</v>
       </c>
       <c r="P10">
-        <v>0.2451007357026536</v>
+        <v>0.2500660443049799</v>
       </c>
       <c r="Q10">
-        <v>499.2145421206328</v>
+        <v>573.7322571401271</v>
       </c>
       <c r="R10">
-        <v>499.2145421206328</v>
+        <v>5163.590314261144</v>
       </c>
       <c r="S10">
-        <v>0.03638097850803167</v>
+        <v>0.03645103091839238</v>
       </c>
       <c r="T10">
-        <v>0.03638097850803167</v>
+        <v>0.03645103091839238</v>
       </c>
     </row>
   </sheetData>
